--- a/境外美签客人.xlsx
+++ b/境外美签客人.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EED65B-C352-47C0-90B9-3624550FDEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,84 +51,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>账号(Email)</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>是否修改</t>
+  </si>
+  <si>
+    <t>是否预约</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>Xiaoxin1230.</t>
+  </si>
+  <si>
+    <t>2024.4.20-2024.5.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>928781367@qq.com（实例）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伦敦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visa2024$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.5.01-2024.7.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EJ6315605</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作客人的护照号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EJ6315609</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elerriel@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangqingmeiguo123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1611325505lililll@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EJ2952349</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.4.01-2024.5.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhoelado2024!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y0119346</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 没有BUG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22024.6.03-2024.6.6;024.6.08-2024.6.26;2024.6.28-2024.6.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dechenpema777@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>chen_aiqiao@hotmail.com</t>
+  </si>
+  <si>
+    <t>chenaiqiao1999</t>
+  </si>
+  <si>
+    <t>2024.9.4-2024.9.30</t>
+  </si>
+  <si>
+    <t>EL6314956</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣保罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>374010248@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lee253515</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.12.10-2024.12.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC3970995</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>领区</t>
-  </si>
-  <si>
-    <t>账号(Email)</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>是否修改</t>
-  </si>
-  <si>
-    <t>是否预约</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>Xiaoxin1230.</t>
-  </si>
-  <si>
-    <t>2024.4.20-2024.5.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>928781367@qq.com（实例）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伦敦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>elerriel@outlook.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visa2024$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.5.01-2024.7.31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EJ6315605</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作客人的护照号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EJ6315609</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,15 +246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -204,6 +273,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -219,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,35 +319,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -279,56 +368,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -391,9 +462,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -431,9 +502,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,7 +539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +574,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -676,195 +747,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.95" customHeight="1">
+    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="24.95" customHeight="1">
+    <row r="2" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+    <row r="6" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+    <row r="7" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+    <row r="8" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7">
+        <v>123</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+    <row r="9" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7">
+        <v>456</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+    <row r="10" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>789</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
       <c r="K11" s="10"/>
@@ -872,82 +1051,54 @@
       <c r="M11" s="10"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="24.95" customHeight="1"/>
-    <row r="13" spans="1:14" ht="24.95" customHeight="1"/>
-    <row r="15" spans="1:14">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="4"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="N11 N9 N16" name="区域1_1"/>
+    <protectedRange sqref="N11 N7" name="区域1_1"/>
   </protectedRanges>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="8" priority="36">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="7" priority="40">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="expression" dxfId="6" priority="18">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C8" r:id="rId7" display="chen_aiqiao@hotmail.com" xr:uid="{82A2053C-43ED-45B4-9F59-46567CC15EE5}"/>
+    <hyperlink ref="C9" r:id="rId8" display="chen_aiqiao@hotmail.com" xr:uid="{5A118A18-3A3F-4DEA-8A0D-3A2980532F9F}"/>
+    <hyperlink ref="C10" r:id="rId9" display="chen_aiqiao@hotmail.com" xr:uid="{6F7ABA8A-9E0A-4F30-ACB7-95146585519D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/境外美签客人.xlsx
+++ b/境外美签客人.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EED65B-C352-47C0-90B9-3624550FDEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619905D6-B1B9-4BD2-B7BC-FB5AED62BBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -71,37 +71,26 @@
     <t>0</t>
   </si>
   <si>
+    <t>Xiaoxin1230.</t>
+  </si>
+  <si>
+    <t>2024.4.20-2024.5.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>928781367@qq.com（实例）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>伦敦</t>
-  </si>
-  <si>
-    <t>Xiaoxin1230.</t>
-  </si>
-  <si>
-    <t>2024.4.20-2024.5.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>928781367@qq.com（实例）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伦敦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visa2024$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.5.01-2024.7.31</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -113,91 +102,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EJ6315609</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>elerriel@outlook.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangqingmeiguo123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1611325505lililll@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EJ2952349</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.4.01-2024.5.31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bhoelado2024!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y0119346</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 没有BUG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22024.6.03-2024.6.6;024.6.08-2024.6.26;2024.6.28-2024.6.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dechenpema777@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>chen_aiqiao@hotmail.com</t>
-  </si>
-  <si>
     <t>chenaiqiao1999</t>
   </si>
   <si>
-    <t>2024.9.4-2024.9.30</t>
-  </si>
-  <si>
-    <t>EL6314956</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣保罗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>374010248@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lee253515</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.12.10-2024.12.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC3970995</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>领区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.04.01-2025.05.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL6314912</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,13 +164,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -296,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -319,17 +236,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -337,12 +243,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,9 +259,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,22 +269,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -390,7 +277,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -399,56 +288,7 @@
     <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -748,357 +588,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3"/>
+      <c r="D3" s="6">
+        <v>789</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>123</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="7">
-        <v>123</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="7">
-        <v>456</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="7">
-        <v>789</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="4"/>
     </row>
   </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="N11 N7" name="区域1_1"/>
-  </protectedRanges>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C8" r:id="rId7" display="chen_aiqiao@hotmail.com" xr:uid="{82A2053C-43ED-45B4-9F59-46567CC15EE5}"/>
-    <hyperlink ref="C9" r:id="rId8" display="chen_aiqiao@hotmail.com" xr:uid="{5A118A18-3A3F-4DEA-8A0D-3A2980532F9F}"/>
-    <hyperlink ref="C10" r:id="rId9" display="chen_aiqiao@hotmail.com" xr:uid="{6F7ABA8A-9E0A-4F30-ACB7-95146585519D}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" display="chen_aiqiao@hotmail.com" xr:uid="{6F7ABA8A-9E0A-4F30-ACB7-95146585519D}"/>
+    <hyperlink ref="D4" r:id="rId3" display="chen_aiqiao@hotmail.com" xr:uid="{1E11C584-FEA3-4651-9607-ECE2D96DCE0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/境外美签客人.xlsx
+++ b/境外美签客人.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619905D6-B1B9-4BD2-B7BC-FB5AED62BBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCEE085-BE30-4684-9EED-8D9AF9883335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
@@ -122,6 +122,46 @@
   </si>
   <si>
     <t>英国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bingding201@yahoo.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DING&amp;2025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.01.01-2025.01.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC9694799</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温哥华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yao2024yiyun@163.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAO&amp;2025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.01.27-2027.04.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EK6129544</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -236,6 +276,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -248,7 +299,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +329,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,7 +737,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
@@ -712,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
@@ -722,6 +776,64 @@
       </c>
       <c r="I4" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -730,9 +842,11 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D3" r:id="rId2" display="chen_aiqiao@hotmail.com" xr:uid="{6F7ABA8A-9E0A-4F30-ACB7-95146585519D}"/>
     <hyperlink ref="D4" r:id="rId3" display="chen_aiqiao@hotmail.com" xr:uid="{1E11C584-FEA3-4651-9607-ECE2D96DCE0E}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{0F2D75C5-5EEF-4C48-A2D1-11C129AF24BB}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{B763CC34-DE80-489F-9B41-CD7D74398A55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/境外美签客人.xlsx
+++ b/境外美签客人.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCEE085-BE30-4684-9EED-8D9AF9883335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>序号</t>
   </si>
@@ -102,21 +101,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>chenaiqiao1999</t>
-  </si>
-  <si>
     <t>领区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025.04.01-2025.05.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EL6314912</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>国家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -125,22 +113,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bingding201@yahoo.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DING&amp;2025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.01.01-2025.01.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC9694799</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>加拿大</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,18 +129,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025.01.27-2027.04.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EK6129544</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.01.27-2025.04.18;2025.09.01-2025.10.30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -276,17 +248,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -299,7 +260,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,21 +286,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 4" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -396,9 +351,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,7 +423,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -695,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -720,23 +675,23 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6">
-        <v>789</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="8">
@@ -746,107 +701,17 @@
         <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6">
-        <v>123</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" display="chen_aiqiao@hotmail.com" xr:uid="{6F7ABA8A-9E0A-4F30-ACB7-95146585519D}"/>
-    <hyperlink ref="D4" r:id="rId3" display="chen_aiqiao@hotmail.com" xr:uid="{1E11C584-FEA3-4651-9607-ECE2D96DCE0E}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{0F2D75C5-5EEF-4C48-A2D1-11C129AF24BB}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{B763CC34-DE80-489F-9B41-CD7D74398A55}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>